--- a/Atributos no Autenticação.Gov/Atributos.xlsx
+++ b/Atributos no Autenticação.Gov/Atributos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Atributos" sheetId="1" state="visible" r:id="rId2"/>
@@ -1696,10 +1696,10 @@
   </si>
   <si>
     <t xml:space="preserve">Devolve os atributos profissionais/empresarias/funcionário de qualquer fornecedor registado no SCAP.
-O atributo recebe como parâmetro a lista de fornecedores para os quais se pretende pesquisar atributos (por exemplo http://interop.gov.pt/SCAP?Fornecedor=ANSR,DRE2). Este parâmetro é obrigatório e aceita 1 ou mais valores, desde que separados por ',').
+O atributo recebe como parâmetro a lista de fornecedores para os quais se pretende pesquisar atributos (http://interop.gov.pt/SCAP?Fornecedor=ANSR,DRE2). Este parâmetro é obrigatório e aceita 1 ou mais valores, desde que separados por ',').
 O valor do atributo é devolvido em formato XML. Morada, website e logotipo da entidade só devolvidos para atributos de funcionários e são opcionais.
 * Ver FAScapAttributes.xsd
-* A lista de fornecedores poderá ser consultada na aba Fornecedores SCAP existente neste documento</t>
+* A lista de fornecedores poderá ser consultada na aba Fornecedores SCAP existente neste documento.</t>
   </si>
   <si>
     <t xml:space="preserve">http://interop.gov.pt/MDC/Cidadao/TemAssinaturaDigitalCMD</t>
@@ -2742,7 +2742,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2779,10 +2779,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2796,10 +2792,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2891,16 +2883,8 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2983,10 +2967,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:F180" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
   <autoFilter ref="A1:F180">
     <filterColumn colId="4">
-      <filters>
-        <filter val="Disponível"/>
-        <filter val="Planeado"/>
-      </filters>
+      <customFilters and="true">
+        <customFilter operator="equal" val="Disponível"/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="6">
@@ -3007,17 +2990,17 @@
   </sheetPr>
   <dimension ref="A1:G180"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B177" activeCellId="0" sqref="B177"/>
+      <selection pane="bottomLeft" activeCell="D177" activeCellId="0" sqref="D177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="53.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="73.71"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="3" min="3" style="0" width="34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="49.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="68.85"/>
@@ -3287,10 +3270,10 @@
       <c r="D15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="10" t="s">
+      <c r="E15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3310,7 +3293,7 @@
       <c r="E16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="10" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3330,7 +3313,7 @@
       <c r="E17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="11" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3350,7 +3333,7 @@
       <c r="E18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="11" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3407,7 +3390,7 @@
       <c r="E21" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="12" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3427,7 +3410,7 @@
       <c r="E22" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="10" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3447,7 +3430,7 @@
       <c r="E23" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="11" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3507,7 +3490,7 @@
       <c r="E26" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="11" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3607,7 +3590,7 @@
       <c r="E31" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="12" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3615,7 +3598,7 @@
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C32" s="0" t="s">
@@ -3635,7 +3618,7 @@
       <c r="A33" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C33" s="0" t="s">
@@ -3727,7 +3710,7 @@
       <c r="E37" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="F37" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4207,7 +4190,7 @@
       <c r="E61" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F61" s="13" t="s">
+      <c r="F61" s="12" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4227,10 +4210,10 @@
       <c r="E62" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="13" t="s">
+      <c r="F62" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G62" s="14"/>
+      <c r="G62" s="5"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
@@ -4248,10 +4231,10 @@
       <c r="E63" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F63" s="13" t="s">
+      <c r="F63" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G63" s="14"/>
+      <c r="G63" s="5"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
@@ -4269,10 +4252,10 @@
       <c r="E64" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F64" s="13" t="s">
+      <c r="F64" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G64" s="14"/>
+      <c r="G64" s="5"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
@@ -4290,10 +4273,10 @@
       <c r="E65" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="13" t="s">
+      <c r="F65" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G65" s="14"/>
+      <c r="G65" s="5"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
@@ -4311,10 +4294,10 @@
       <c r="E66" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F66" s="13" t="s">
+      <c r="F66" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G66" s="14"/>
+      <c r="G66" s="5"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
@@ -4332,10 +4315,10 @@
       <c r="E67" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F67" s="13" t="s">
+      <c r="F67" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G67" s="14"/>
+      <c r="G67" s="5"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
@@ -4353,10 +4336,10 @@
       <c r="E68" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="13" t="s">
+      <c r="F68" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G68" s="14"/>
+      <c r="G68" s="5"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
@@ -4374,10 +4357,10 @@
       <c r="E69" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F69" s="13" t="s">
+      <c r="F69" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G69" s="14"/>
+      <c r="G69" s="5"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
@@ -4395,10 +4378,10 @@
       <c r="E70" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F70" s="13" t="s">
+      <c r="F70" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G70" s="14"/>
+      <c r="G70" s="5"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
@@ -4416,10 +4399,10 @@
       <c r="E71" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="13" t="s">
+      <c r="F71" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G71" s="14"/>
+      <c r="G71" s="5"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
@@ -4437,10 +4420,10 @@
       <c r="E72" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F72" s="13" t="s">
+      <c r="F72" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G72" s="14"/>
+      <c r="G72" s="5"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
@@ -4458,10 +4441,10 @@
       <c r="E73" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F73" s="13" t="s">
+      <c r="F73" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G73" s="14"/>
+      <c r="G73" s="5"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
@@ -4479,10 +4462,10 @@
       <c r="E74" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F74" s="13" t="s">
+      <c r="F74" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G74" s="14"/>
+      <c r="G74" s="5"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
@@ -4500,10 +4483,10 @@
       <c r="E75" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F75" s="13" t="s">
+      <c r="F75" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G75" s="14"/>
+      <c r="G75" s="5"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
@@ -4521,10 +4504,10 @@
       <c r="E76" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F76" s="13" t="s">
+      <c r="F76" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G76" s="14"/>
+      <c r="G76" s="5"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
@@ -4542,10 +4525,10 @@
       <c r="E77" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F77" s="13" t="s">
+      <c r="F77" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G77" s="14"/>
+      <c r="G77" s="5"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
@@ -4563,376 +4546,376 @@
       <c r="E78" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F78" s="13" t="s">
+      <c r="F78" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G78" s="14"/>
+      <c r="G78" s="5"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="15" t="s">
+      <c r="A79" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B79" s="16" t="s">
+      <c r="B79" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="C79" s="15" t="s">
+      <c r="C79" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="D79" s="15" t="s">
+      <c r="D79" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="E79" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" s="15" t="s">
+      <c r="E79" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G79" s="17" t="s">
+      <c r="G79" s="15" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="15" t="s">
+      <c r="A80" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B80" s="16" t="s">
+      <c r="B80" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="C80" s="15" t="s">
+      <c r="C80" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="D80" s="15" t="s">
+      <c r="D80" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="E80" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F80" s="15" t="s">
+      <c r="E80" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G80" s="17" t="s">
+      <c r="G80" s="15" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="15" t="s">
+      <c r="A81" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B81" s="16" t="s">
+      <c r="B81" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="C81" s="15" t="s">
+      <c r="C81" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="D81" s="15" t="s">
+      <c r="D81" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="E81" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" s="15" t="s">
+      <c r="E81" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G81" s="17" t="s">
+      <c r="G81" s="15" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="15" t="s">
+      <c r="A82" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B82" s="16" t="s">
+      <c r="B82" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="C82" s="15" t="s">
+      <c r="C82" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="D82" s="15" t="s">
+      <c r="D82" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="E82" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F82" s="15" t="s">
+      <c r="E82" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G82" s="17" t="s">
+      <c r="G82" s="15" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="15" t="s">
+      <c r="A83" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B83" s="16" t="s">
+      <c r="B83" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="C83" s="15" t="s">
+      <c r="C83" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="D83" s="15" t="s">
+      <c r="D83" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="E83" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F83" s="15" t="s">
+      <c r="E83" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G83" s="17" t="s">
+      <c r="G83" s="15" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="15" t="s">
+      <c r="A84" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B84" s="16" t="s">
+      <c r="B84" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="C84" s="15" t="s">
+      <c r="C84" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="D84" s="15" t="s">
+      <c r="D84" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="E84" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" s="15" t="s">
+      <c r="E84" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G84" s="17" t="s">
+      <c r="G84" s="15" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="15" t="s">
+      <c r="A85" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B85" s="16" t="s">
+      <c r="B85" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="C85" s="15" t="s">
+      <c r="C85" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="D85" s="15" t="s">
+      <c r="D85" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="E85" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F85" s="15" t="s">
+      <c r="E85" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G85" s="17" t="s">
+      <c r="G85" s="15" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="15" t="s">
+      <c r="A86" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B86" s="16" t="s">
+      <c r="B86" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="C86" s="15" t="s">
+      <c r="C86" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="D86" s="15" t="s">
+      <c r="D86" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="E86" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F86" s="15" t="s">
+      <c r="E86" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G86" s="17" t="s">
+      <c r="G86" s="15" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="15" t="s">
+      <c r="A87" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B87" s="16" t="s">
+      <c r="B87" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="C87" s="15" t="s">
+      <c r="C87" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="D87" s="15" t="s">
+      <c r="D87" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="E87" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F87" s="15" t="s">
+      <c r="E87" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G87" s="17" t="s">
+      <c r="G87" s="15" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="15" t="s">
+      <c r="A88" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B88" s="16" t="s">
+      <c r="B88" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="C88" s="15" t="s">
+      <c r="C88" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="D88" s="15" t="s">
+      <c r="D88" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="E88" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F88" s="15" t="s">
+      <c r="E88" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G88" s="17" t="s">
+      <c r="G88" s="15" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="15" t="s">
+      <c r="A89" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B89" s="16" t="s">
+      <c r="B89" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="C89" s="15" t="s">
+      <c r="C89" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="D89" s="15" t="s">
+      <c r="D89" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="E89" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F89" s="15" t="s">
+      <c r="E89" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G89" s="17" t="s">
+      <c r="G89" s="15" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="15" t="s">
+      <c r="A90" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B90" s="16" t="s">
+      <c r="B90" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="C90" s="15" t="s">
+      <c r="C90" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="D90" s="15" t="s">
+      <c r="D90" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="E90" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F90" s="15" t="s">
+      <c r="E90" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G90" s="17" t="s">
+      <c r="G90" s="15" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="15" t="s">
+      <c r="A91" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B91" s="16" t="s">
+      <c r="B91" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="C91" s="15" t="s">
+      <c r="C91" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="D91" s="15" t="s">
+      <c r="D91" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="E91" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F91" s="15" t="s">
+      <c r="E91" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G91" s="17" t="s">
+      <c r="G91" s="15" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="15" t="s">
+      <c r="A92" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B92" s="16" t="s">
+      <c r="B92" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="C92" s="15" t="s">
+      <c r="C92" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="D92" s="15" t="s">
+      <c r="D92" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="E92" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F92" s="15" t="s">
+      <c r="E92" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G92" s="17" t="s">
+      <c r="G92" s="15" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="15" t="s">
+      <c r="A93" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B93" s="16" t="s">
+      <c r="B93" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="C93" s="15" t="s">
+      <c r="C93" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="D93" s="15" t="s">
+      <c r="D93" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="E93" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F93" s="15" t="s">
+      <c r="E93" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G93" s="17" t="s">
+      <c r="G93" s="15" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="15" t="s">
+      <c r="A94" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B94" s="16" t="s">
+      <c r="B94" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="C94" s="15" t="s">
+      <c r="C94" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="D94" s="15" t="s">
+      <c r="D94" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="E94" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F94" s="15" t="s">
+      <c r="E94" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G94" s="17" t="s">
+      <c r="G94" s="15" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4952,7 +4935,7 @@
       <c r="E95" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F95" s="13" t="s">
+      <c r="F95" s="12" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4972,7 +4955,7 @@
       <c r="E96" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F96" s="13" t="s">
+      <c r="F96" s="12" t="s">
         <v>77</v>
       </c>
     </row>
@@ -5385,25 +5368,25 @@
       </c>
     </row>
     <row r="121" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="9" t="s">
+      <c r="A121" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B121" s="16" t="s">
+      <c r="B121" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="C121" s="15" t="s">
+      <c r="C121" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="D121" s="15" t="s">
+      <c r="D121" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="E121" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F121" s="15" t="s">
+      <c r="E121" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="G121" s="17" t="s">
+      <c r="G121" s="15" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5437,7 +5420,7 @@
       <c r="E123" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F123" s="12" t="s">
+      <c r="F123" s="11" t="s">
         <v>353</v>
       </c>
     </row>
@@ -5457,7 +5440,7 @@
       <c r="E124" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F124" s="12" t="s">
+      <c r="F124" s="11" t="s">
         <v>353</v>
       </c>
     </row>
@@ -5477,7 +5460,7 @@
       <c r="E125" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F125" s="12" t="s">
+      <c r="F125" s="11" t="s">
         <v>353</v>
       </c>
     </row>
@@ -5497,7 +5480,7 @@
       <c r="E126" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F126" s="12" t="s">
+      <c r="F126" s="11" t="s">
         <v>353</v>
       </c>
     </row>
@@ -5517,7 +5500,7 @@
       <c r="E127" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F127" s="12" t="s">
+      <c r="F127" s="11" t="s">
         <v>353</v>
       </c>
     </row>
@@ -5537,7 +5520,7 @@
       <c r="E128" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F128" s="12" t="s">
+      <c r="F128" s="11" t="s">
         <v>353</v>
       </c>
     </row>
@@ -5558,7 +5541,7 @@
         <v>11</v>
       </c>
       <c r="F129" s="5"/>
-      <c r="G129" s="18" t="s">
+      <c r="G129" s="16" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5578,7 +5561,7 @@
       <c r="E130" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G130" s="18" t="s">
+      <c r="G130" s="16" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5598,10 +5581,10 @@
       <c r="E131" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F131" s="12" t="s">
+      <c r="F131" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="G131" s="18" t="s">
+      <c r="G131" s="16" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5622,7 +5605,7 @@
         <v>11</v>
       </c>
       <c r="F132" s="5"/>
-      <c r="G132" s="18" t="s">
+      <c r="G132" s="16" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5643,7 +5626,7 @@
         <v>11</v>
       </c>
       <c r="F133" s="5"/>
-      <c r="G133" s="18" t="s">
+      <c r="G133" s="16" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5664,7 +5647,7 @@
         <v>11</v>
       </c>
       <c r="F134" s="5"/>
-      <c r="G134" s="18" t="s">
+      <c r="G134" s="16" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5684,7 +5667,7 @@
       <c r="E135" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G135" s="18" t="s">
+      <c r="G135" s="16" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5705,7 +5688,7 @@
         <v>11</v>
       </c>
       <c r="F136" s="5"/>
-      <c r="G136" s="18" t="s">
+      <c r="G136" s="16" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5725,10 +5708,10 @@
       <c r="E137" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F137" s="12" t="s">
+      <c r="F137" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="G137" s="18" t="s">
+      <c r="G137" s="16" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5749,7 +5732,7 @@
         <v>11</v>
       </c>
       <c r="F138" s="5"/>
-      <c r="G138" s="18" t="s">
+      <c r="G138" s="16" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5770,7 +5753,7 @@
         <v>11</v>
       </c>
       <c r="F139" s="5"/>
-      <c r="G139" s="18" t="s">
+      <c r="G139" s="16" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5791,7 +5774,7 @@
         <v>11</v>
       </c>
       <c r="F140" s="5"/>
-      <c r="G140" s="18" t="s">
+      <c r="G140" s="16" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5812,7 +5795,7 @@
         <v>11</v>
       </c>
       <c r="F141" s="5"/>
-      <c r="G141" s="18" t="s">
+      <c r="G141" s="16" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5833,7 +5816,7 @@
         <v>11</v>
       </c>
       <c r="F142" s="5"/>
-      <c r="G142" s="18" t="s">
+      <c r="G142" s="16" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5854,7 +5837,7 @@
         <v>11</v>
       </c>
       <c r="F143" s="5"/>
-      <c r="G143" s="18" t="s">
+      <c r="G143" s="16" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5875,7 +5858,7 @@
         <v>11</v>
       </c>
       <c r="F144" s="5"/>
-      <c r="G144" s="18" t="s">
+      <c r="G144" s="16" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5896,7 +5879,7 @@
         <v>11</v>
       </c>
       <c r="F145" s="5"/>
-      <c r="G145" s="18" t="s">
+      <c r="G145" s="16" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5916,18 +5899,18 @@
       <c r="E146" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F146" s="12" t="s">
+      <c r="F146" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="G146" s="18" t="s">
+      <c r="G146" s="16" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="147" s="5" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="9" t="s">
+      <c r="A147" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B147" s="14" t="s">
+      <c r="B147" s="5" t="s">
         <v>410</v>
       </c>
       <c r="C147" s="5" t="s">
@@ -5939,10 +5922,10 @@
       <c r="E147" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F147" s="12" t="s">
+      <c r="F147" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="G147" s="18" t="s">
+      <c r="G147" s="16" t="s">
         <v>367</v>
       </c>
     </row>
@@ -6322,7 +6305,7 @@
       <c r="E166" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F166" s="12" t="s">
+      <c r="F166" s="11" t="s">
         <v>473</v>
       </c>
     </row>
@@ -6482,7 +6465,7 @@
       <c r="E174" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F174" s="12" t="s">
+      <c r="F174" s="11" t="s">
         <v>499</v>
       </c>
     </row>
@@ -6502,10 +6485,10 @@
       <c r="E175" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F175" s="12" t="s">
+      <c r="F175" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="G175" s="19" t="s">
+      <c r="G175" s="17" t="s">
         <v>504</v>
       </c>
     </row>
@@ -6525,10 +6508,10 @@
       <c r="E176" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F176" s="12" t="s">
+      <c r="F176" s="11" t="s">
         <v>508</v>
       </c>
-      <c r="G176" s="19" t="s">
+      <c r="G176" s="17" t="s">
         <v>504</v>
       </c>
     </row>
@@ -6548,10 +6531,10 @@
       <c r="E177" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F177" s="12" t="s">
+      <c r="F177" s="11" t="s">
         <v>512</v>
       </c>
-      <c r="G177" s="19" t="s">
+      <c r="G177" s="17" t="s">
         <v>504</v>
       </c>
     </row>
@@ -6571,16 +6554,13 @@
       <c r="E178" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F178" s="12" t="s">
+      <c r="F178" s="11" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="180" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F177" r:id="rId2" display="http://interop"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -6588,9 +6568,9 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts>
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -6602,13 +6582,13 @@
   </sheetPr>
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="61.29"/>
@@ -6616,17 +6596,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="74.28"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="20" t="s">
+    <row r="1" s="18" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="18" t="s">
         <v>517</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>518</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="18" t="s">
         <v>519</v>
       </c>
     </row>
@@ -6637,7 +6617,7 @@
       <c r="B2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="19" t="s">
         <v>521</v>
       </c>
     </row>
@@ -6648,7 +6628,7 @@
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="20" t="s">
         <v>523</v>
       </c>
     </row>
@@ -6659,7 +6639,7 @@
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="20" t="s">
         <v>523</v>
       </c>
     </row>
@@ -6670,7 +6650,7 @@
       <c r="B5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="20" t="s">
         <v>523</v>
       </c>
     </row>
@@ -6692,7 +6672,7 @@
       <c r="B7" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="20" t="s">
         <v>523</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -6706,10 +6686,10 @@
       <c r="B8" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="20" t="s">
         <v>523</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>528</v>
       </c>
     </row>
@@ -6717,10 +6697,10 @@
       <c r="A9" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="20" t="s">
         <v>523</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -6728,16 +6708,16 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="21" t="s">
         <v>530</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="22" t="s">
         <v>531</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="23" t="s">
         <v>532</v>
       </c>
     </row>
@@ -6748,7 +6728,7 @@
       <c r="B11" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="20" t="s">
         <v>523</v>
       </c>
       <c r="D11" s="0" t="s">
@@ -6762,12 +6742,12 @@
       <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="20" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>535</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -6795,7 +6775,7 @@
       <c r="B15" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="20" t="s">
         <v>523</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -6809,7 +6789,7 @@
       <c r="B16" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="20" t="s">
         <v>523</v>
       </c>
       <c r="D16" s="0" t="s">
@@ -6823,7 +6803,7 @@
       <c r="B17" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="20" t="s">
         <v>523</v>
       </c>
       <c r="D17" s="0" t="s">
@@ -7048,93 +7028,93 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="89.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="94.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>543</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="24" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="25" t="s">
         <v>545</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="26" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="25" t="s">
         <v>547</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="26" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="25" t="s">
         <v>549</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="26" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="25" t="s">
         <v>551</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="26" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="25" t="s">
         <v>553</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="26" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="25" t="s">
         <v>555</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="26" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="26" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="25" t="s">
         <v>558</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="26" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="25" t="s">
         <v>560</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="26" t="s">
         <v>561</v>
       </c>
     </row>
@@ -7156,209 +7136,209 @@
   </sheetPr>
   <dimension ref="A1:A42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="253.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30"/>
+      <c r="A2" s="28"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="29" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="32"/>
+      <c r="A4" s="30"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="31" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="31" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="31" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="31" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="31" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="31" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="31" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="31" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="33"/>
+      <c r="A14" s="31"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="32" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="35"/>
+      <c r="A16" s="33"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="34" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="34" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="34" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="34" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="34" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="34" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="34" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="34" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="34" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="34" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="34" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="34" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="34" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="36"/>
+      <c r="A31" s="34"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="35" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="34" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="34" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="36" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="12" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="37" t="s">
+      <c r="A38" s="34" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="36" t="s">
+      <c r="A39" s="34" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="37" t="s">
+      <c r="A40" s="34" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="34" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="37"/>
+      <c r="A42" s="34"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Atributos no Autenticação.Gov/Atributos.xlsx
+++ b/Atributos no Autenticação.Gov/Atributos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Atributos" sheetId="1" state="visible" r:id="rId2"/>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="595">
   <si>
     <t xml:space="preserve">Mecanismo Autenticação</t>
   </si>
@@ -298,7 +298,8 @@
   </si>
   <si>
     <t xml:space="preserve">* Se efetuar autenticação com CC é obtido o código ISO3 do país
-* Se efetuar autenticação com CMD é obtido nome por extenso do país apenas se CMD baseada em passaporte, título de residência ou cartão de residência, se a CMD pertencer a um cidadão nacional este atributo apresenta-se vazio</t>
+* Se efetuar autenticação com CMD é obtido nome por extenso do país apenas se CMD baseada em passaporte, título de residência ou cartão de residência. 
+* Se a CMD pertencer a um cidadão nacional ou cidadão brasileiro com cartão de cidadão ao abrigo do tratado de Porto Seguro, este atributo apresenta-se vazio</t>
   </si>
   <si>
     <t xml:space="preserve">Chave Móvel Digital (CMD)</t>
@@ -2050,6 +2051,24 @@
   </si>
   <si>
     <t xml:space="preserve">SGMDN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universidade do Porto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPORTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordem dos Nutricionistas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordem dos Médicos Veterinários</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OMV</t>
   </si>
   <si>
     <t xml:space="preserve">NOTA: Para obter os atributos disponíveis por mecanismo de autenticação, deverá ser utilizada a funcionalidade de filtragem na folha excel.</t>
@@ -2742,152 +2761,168 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="10" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2900,6 +2935,37 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2967,9 +3033,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:F180" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
   <autoFilter ref="A1:F180">
     <filterColumn colId="4">
-      <customFilters and="true">
-        <customFilter operator="equal" val="Disponível"/>
-      </customFilters>
+      <filters>
+        <filter val="Disponível"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="6">
@@ -2984,49 +3050,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G180"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D177" activeCellId="0" sqref="D177"/>
+      <selection pane="bottomLeft" activeCell="B68" activeCellId="0" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="53.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="73.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="49.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="68.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="81.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="26.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="49.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="68.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="81.57"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="4" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3034,16 +3100,16 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3054,13 +3120,13 @@
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3071,13 +3137,13 @@
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3088,13 +3154,13 @@
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3105,13 +3171,13 @@
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3122,13 +3188,13 @@
       <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3139,13 +3205,13 @@
       <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3156,13 +3222,13 @@
       <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3173,13 +3239,13 @@
       <c r="B10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3190,13 +3256,13 @@
       <c r="B11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3207,13 +3273,13 @@
       <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3224,36 +3290,36 @@
       <c r="B13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="E14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="8" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3261,19 +3327,19 @@
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>46</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="9" t="s">
+      <c r="E15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3284,36 +3350,36 @@
       <c r="B16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="10" t="s">
+      <c r="E16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="112.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="11" t="s">
+      <c r="E17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="12" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3324,16 +3390,16 @@
       <c r="B18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="11" t="s">
+      <c r="E18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3344,13 +3410,13 @@
       <c r="B19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" s="2" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3361,16 +3427,16 @@
       <c r="B20" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="F20" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3381,16 +3447,16 @@
       <c r="B21" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="12" t="s">
+      <c r="E21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="13" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3401,16 +3467,16 @@
       <c r="B22" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="10" t="s">
+      <c r="E22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="11" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3421,16 +3487,16 @@
       <c r="B23" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="12" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3441,16 +3507,16 @@
       <c r="B24" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="6" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3461,16 +3527,16 @@
       <c r="B25" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="6" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3481,16 +3547,16 @@
       <c r="B26" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="12" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3501,16 +3567,16 @@
       <c r="B27" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="6" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3521,16 +3587,16 @@
       <c r="B28" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="6" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3541,16 +3607,16 @@
       <c r="B29" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="6" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3561,16 +3627,16 @@
       <c r="B30" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="6" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3581,16 +3647,16 @@
       <c r="B31" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="12" t="s">
+      <c r="E31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="13" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3598,19 +3664,19 @@
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E32" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="0" t="s">
+      <c r="E32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3618,19 +3684,19 @@
       <c r="A33" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="0" t="s">
+      <c r="E33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3641,16 +3707,16 @@
       <c r="B34" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="0" t="s">
+      <c r="E34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3661,16 +3727,16 @@
       <c r="B35" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="6" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3681,16 +3747,16 @@
       <c r="B36" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="6" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3701,16 +3767,16 @@
       <c r="B37" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="E37" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F37" s="11" t="s">
+      <c r="F37" s="12" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3721,16 +3787,16 @@
       <c r="B38" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="6" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3741,16 +3807,16 @@
       <c r="B39" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="6" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3761,16 +3827,16 @@
       <c r="B40" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E40" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="0" t="s">
+      <c r="E40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3781,16 +3847,16 @@
       <c r="B41" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E41" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="5" t="s">
+      <c r="E41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="6" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3801,16 +3867,16 @@
       <c r="B42" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E42" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="5" t="s">
+      <c r="E42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="6" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3821,16 +3887,16 @@
       <c r="B43" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E43" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="5" t="s">
+      <c r="E43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="6" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3841,16 +3907,16 @@
       <c r="B44" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E44" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="5" t="s">
+      <c r="E44" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="6" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3861,16 +3927,16 @@
       <c r="B45" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E45" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="5" t="s">
+      <c r="E45" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="6" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3881,16 +3947,16 @@
       <c r="B46" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E46" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="5" t="s">
+      <c r="E46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="6" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3901,16 +3967,16 @@
       <c r="B47" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E47" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="0" t="s">
+      <c r="E47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3921,16 +3987,16 @@
       <c r="B48" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E48" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="5" t="s">
+      <c r="E48" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="6" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3941,16 +4007,16 @@
       <c r="B49" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E49" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="5" t="s">
+      <c r="E49" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="6" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3961,16 +4027,16 @@
       <c r="B50" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E50" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="5" t="s">
+      <c r="E50" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="6" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3981,16 +4047,16 @@
       <c r="B51" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E51" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="0" t="s">
+      <c r="E51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4001,16 +4067,16 @@
       <c r="B52" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="5" t="s">
+      <c r="E52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="6" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4021,16 +4087,16 @@
       <c r="B53" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E53" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="5" t="s">
+      <c r="E53" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="6" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4041,16 +4107,16 @@
       <c r="B54" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E54" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="5" t="s">
+      <c r="E54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="6" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4061,16 +4127,16 @@
       <c r="B55" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E55" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="5" t="s">
+      <c r="E55" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="6" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4081,16 +4147,16 @@
       <c r="B56" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D56" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E56" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" s="5" t="s">
+      <c r="E56" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="6" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4101,16 +4167,16 @@
       <c r="B57" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E57" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="5" t="s">
+      <c r="E57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="6" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4121,16 +4187,16 @@
       <c r="B58" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D58" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E58" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="5" t="s">
+      <c r="E58" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="6" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4141,16 +4207,16 @@
       <c r="B59" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="C59" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="D59" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E59" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="5" t="s">
+      <c r="E59" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="6" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4161,16 +4227,16 @@
       <c r="B60" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="D60" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E60" s="0" t="s">
+      <c r="E60" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F60" s="0" t="s">
+      <c r="F60" s="2" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4181,16 +4247,16 @@
       <c r="B61" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="D61" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E61" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" s="12" t="s">
+      <c r="E61" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="13" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4201,19 +4267,19 @@
       <c r="B62" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="D62" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E62" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F62" s="12" t="s">
+      <c r="E62" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G62" s="5"/>
+      <c r="G62" s="6"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
@@ -4222,19 +4288,19 @@
       <c r="B63" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="D63" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E63" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F63" s="12" t="s">
+      <c r="E63" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G63" s="5"/>
+      <c r="G63" s="6"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
@@ -4243,19 +4309,19 @@
       <c r="B64" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D64" s="0" t="s">
+      <c r="D64" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E64" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="12" t="s">
+      <c r="E64" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G64" s="5"/>
+      <c r="G64" s="6"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
@@ -4264,19 +4330,19 @@
       <c r="B65" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="C65" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D65" s="0" t="s">
+      <c r="D65" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E65" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" s="12" t="s">
+      <c r="E65" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G65" s="5"/>
+      <c r="G65" s="6"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
@@ -4285,19 +4351,19 @@
       <c r="B66" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="C66" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D66" s="0" t="s">
+      <c r="D66" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E66" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F66" s="12" t="s">
+      <c r="E66" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G66" s="5"/>
+      <c r="G66" s="6"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
@@ -4306,19 +4372,19 @@
       <c r="B67" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="C67" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="D67" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E67" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" s="12" t="s">
+      <c r="E67" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G67" s="5"/>
+      <c r="G67" s="6"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
@@ -4327,19 +4393,19 @@
       <c r="B68" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="C68" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="D68" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E68" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F68" s="12" t="s">
+      <c r="E68" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G68" s="5"/>
+      <c r="G68" s="6"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
@@ -4348,19 +4414,19 @@
       <c r="B69" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="C69" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D69" s="0" t="s">
+      <c r="D69" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E69" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69" s="12" t="s">
+      <c r="E69" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G69" s="5"/>
+      <c r="G69" s="6"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
@@ -4369,19 +4435,19 @@
       <c r="B70" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="C70" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D70" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E70" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F70" s="12" t="s">
+      <c r="E70" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G70" s="5"/>
+      <c r="G70" s="6"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
@@ -4390,19 +4456,19 @@
       <c r="B71" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="C71" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="D71" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E71" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="12" t="s">
+      <c r="E71" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G71" s="5"/>
+      <c r="G71" s="6"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
@@ -4411,19 +4477,19 @@
       <c r="B72" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="C72" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="D72" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E72" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72" s="12" t="s">
+      <c r="E72" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G72" s="5"/>
+      <c r="G72" s="6"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
@@ -4432,19 +4498,19 @@
       <c r="B73" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C73" s="0" t="s">
+      <c r="C73" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D73" s="0" t="s">
+      <c r="D73" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E73" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="12" t="s">
+      <c r="E73" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G73" s="5"/>
+      <c r="G73" s="6"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
@@ -4453,19 +4519,19 @@
       <c r="B74" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C74" s="0" t="s">
+      <c r="C74" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D74" s="0" t="s">
+      <c r="D74" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E74" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" s="12" t="s">
+      <c r="E74" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G74" s="5"/>
+      <c r="G74" s="6"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
@@ -4474,19 +4540,19 @@
       <c r="B75" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C75" s="0" t="s">
+      <c r="C75" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D75" s="0" t="s">
+      <c r="D75" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E75" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F75" s="12" t="s">
+      <c r="E75" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G75" s="5"/>
+      <c r="G75" s="6"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
@@ -4495,19 +4561,19 @@
       <c r="B76" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C76" s="0" t="s">
+      <c r="C76" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D76" s="0" t="s">
+      <c r="D76" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="E76" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F76" s="12" t="s">
+      <c r="E76" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G76" s="5"/>
+      <c r="G76" s="6"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
@@ -4516,19 +4582,19 @@
       <c r="B77" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C77" s="0" t="s">
+      <c r="C77" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D77" s="0" t="s">
+      <c r="D77" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E77" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" s="12" t="s">
+      <c r="E77" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G77" s="5"/>
+      <c r="G77" s="6"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
@@ -4537,385 +4603,385 @@
       <c r="B78" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C78" s="0" t="s">
+      <c r="C78" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D78" s="0" t="s">
+      <c r="D78" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E78" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F78" s="12" t="s">
+      <c r="E78" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G78" s="5"/>
+      <c r="G78" s="6"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="13" t="s">
+      <c r="A79" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B79" s="14" t="s">
+      <c r="B79" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C79" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="D79" s="13" t="s">
+      <c r="D79" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="E79" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" s="13" t="s">
+      <c r="E79" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="G79" s="15" t="s">
+      <c r="G79" s="16" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="13" t="s">
+      <c r="A80" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C80" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="D80" s="13" t="s">
+      <c r="D80" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="E80" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F80" s="13" t="s">
+      <c r="E80" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="G80" s="15" t="s">
+      <c r="G80" s="16" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="13" t="s">
+      <c r="A81" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B81" s="14" t="s">
+      <c r="B81" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C81" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="D81" s="13" t="s">
+      <c r="D81" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="E81" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" s="13" t="s">
+      <c r="E81" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="G81" s="15" t="s">
+      <c r="G81" s="16" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="13" t="s">
+      <c r="A82" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B82" s="14" t="s">
+      <c r="B82" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C82" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="D82" s="13" t="s">
+      <c r="D82" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="E82" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F82" s="13" t="s">
+      <c r="E82" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="G82" s="15" t="s">
+      <c r="G82" s="16" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="13" t="s">
+      <c r="A83" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B83" s="14" t="s">
+      <c r="B83" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C83" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="D83" s="13" t="s">
+      <c r="D83" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="E83" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F83" s="13" t="s">
+      <c r="E83" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="G83" s="15" t="s">
+      <c r="G83" s="16" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B84" s="14" t="s">
+      <c r="B84" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C84" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="D84" s="13" t="s">
+      <c r="D84" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="E84" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" s="13" t="s">
+      <c r="E84" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="G84" s="15" t="s">
+      <c r="G84" s="16" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="13" t="s">
+      <c r="A85" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B85" s="14" t="s">
+      <c r="B85" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="C85" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="D85" s="13" t="s">
+      <c r="D85" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="E85" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F85" s="13" t="s">
+      <c r="E85" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="G85" s="15" t="s">
+      <c r="G85" s="16" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="13" t="s">
+      <c r="A86" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B86" s="14" t="s">
+      <c r="B86" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C86" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="D86" s="13" t="s">
+      <c r="D86" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="E86" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F86" s="13" t="s">
+      <c r="E86" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="G86" s="15" t="s">
+      <c r="G86" s="16" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="13" t="s">
+      <c r="A87" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B87" s="14" t="s">
+      <c r="B87" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C87" s="13" t="s">
+      <c r="C87" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="D87" s="13" t="s">
+      <c r="D87" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="E87" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F87" s="13" t="s">
+      <c r="E87" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="G87" s="15" t="s">
+      <c r="G87" s="16" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="13" t="s">
+      <c r="A88" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B88" s="14" t="s">
+      <c r="B88" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="C88" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="D88" s="13" t="s">
+      <c r="D88" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="E88" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F88" s="13" t="s">
+      <c r="E88" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="G88" s="15" t="s">
+      <c r="G88" s="16" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="13" t="s">
+      <c r="A89" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B89" s="14" t="s">
+      <c r="B89" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="C89" s="13" t="s">
+      <c r="C89" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="D89" s="13" t="s">
+      <c r="D89" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="E89" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F89" s="13" t="s">
+      <c r="E89" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="G89" s="15" t="s">
+      <c r="G89" s="16" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="13" t="s">
+      <c r="A90" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B90" s="14" t="s">
+      <c r="B90" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="C90" s="13" t="s">
+      <c r="C90" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="D90" s="13" t="s">
+      <c r="D90" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="E90" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F90" s="13" t="s">
+      <c r="E90" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="G90" s="15" t="s">
+      <c r="G90" s="16" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="13" t="s">
+      <c r="A91" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B91" s="14" t="s">
+      <c r="B91" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="C91" s="13" t="s">
+      <c r="C91" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="D91" s="13" t="s">
+      <c r="D91" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="E91" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F91" s="13" t="s">
+      <c r="E91" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="G91" s="15" t="s">
+      <c r="G91" s="16" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="13" t="s">
+      <c r="A92" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B92" s="14" t="s">
+      <c r="B92" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C92" s="13" t="s">
+      <c r="C92" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="D92" s="13" t="s">
+      <c r="D92" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="E92" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F92" s="13" t="s">
+      <c r="E92" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="G92" s="15" t="s">
+      <c r="G92" s="16" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="13" t="s">
+      <c r="A93" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B93" s="14" t="s">
+      <c r="B93" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="C93" s="13" t="s">
+      <c r="C93" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="D93" s="13" t="s">
+      <c r="D93" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="E93" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F93" s="13" t="s">
+      <c r="E93" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="G93" s="15" t="s">
+      <c r="G93" s="16" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="13" t="s">
+      <c r="A94" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B94" s="14" t="s">
+      <c r="B94" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="C94" s="13" t="s">
+      <c r="C94" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="D94" s="13" t="s">
+      <c r="D94" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="E94" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F94" s="13" t="s">
+      <c r="E94" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="G94" s="15" t="s">
+      <c r="G94" s="16" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4926,16 +4992,16 @@
       <c r="B95" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C95" s="0" t="s">
+      <c r="C95" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D95" s="0" t="s">
+      <c r="D95" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="E95" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F95" s="12" t="s">
+      <c r="E95" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" s="13" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4946,447 +5012,447 @@
       <c r="B96" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C96" s="0" t="s">
+      <c r="C96" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D96" s="0" t="s">
+      <c r="D96" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="E96" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F96" s="12" t="s">
+      <c r="E96" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" s="13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="97" s="5" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="5" t="s">
+    <row r="97" s="6" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C97" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D97" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="E97" s="5" t="s">
+      <c r="E97" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="98" s="5" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="5" t="s">
+    <row r="98" s="6" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C98" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="D98" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E98" s="5" t="s">
+      <c r="E98" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="99" s="5" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="5" t="s">
+    <row r="99" s="6" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="C99" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="D99" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="E99" s="5" t="s">
+      <c r="E99" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="100" s="5" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="5" t="s">
+    <row r="100" s="6" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C100" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D100" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="E100" s="5" t="s">
+      <c r="E100" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="101" s="5" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="5" t="s">
+    <row r="101" s="6" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C101" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="D101" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="E101" s="5" t="s">
+      <c r="E101" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="102" s="5" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="5" t="s">
+    <row r="102" s="6" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="C102" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="D102" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="E102" s="5" t="s">
+      <c r="E102" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="103" s="5" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="5" t="s">
+    <row r="103" s="6" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C103" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D103" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="E103" s="5" t="s">
+      <c r="E103" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="104" s="5" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="5" t="s">
+    <row r="104" s="6" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="C104" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="D104" s="5" t="s">
+      <c r="D104" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="E104" s="5" t="s">
+      <c r="E104" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="105" s="5" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="5" t="s">
+    <row r="105" s="6" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="C105" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="D105" s="5" t="s">
+      <c r="D105" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="E105" s="5" t="s">
+      <c r="E105" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="106" s="5" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="5" t="s">
+    <row r="106" s="6" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="C106" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="D106" s="5" t="s">
+      <c r="D106" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="E106" s="5" t="s">
+      <c r="E106" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="107" s="5" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="5" t="s">
+    <row r="107" s="6" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="C107" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="D107" s="5" t="s">
+      <c r="D107" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="E107" s="5" t="s">
+      <c r="E107" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="108" s="5" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="5" t="s">
+    <row r="108" s="6" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="C108" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="D108" s="5" t="s">
+      <c r="D108" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="E108" s="5" t="s">
+      <c r="E108" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="109" s="5" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="5" t="s">
+    <row r="109" s="6" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B109" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="C109" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="D109" s="5" t="s">
+      <c r="D109" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="E109" s="5" t="s">
+      <c r="E109" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="110" s="5" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="5" t="s">
+    <row r="110" s="6" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="C110" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="D110" s="5" t="s">
+      <c r="D110" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="E110" s="5" t="s">
+      <c r="E110" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="111" s="5" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="5" t="s">
+    <row r="111" s="6" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B111" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="C111" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="D111" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="E111" s="5" t="s">
+      <c r="E111" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="112" s="5" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="5" t="s">
+    <row r="112" s="6" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="B112" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="C112" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="D112" s="5" t="s">
+      <c r="D112" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="E112" s="5" t="s">
+      <c r="E112" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="113" s="5" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="5" t="s">
+    <row r="113" s="6" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="C113" s="5" t="s">
+      <c r="C113" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="D113" s="5" t="s">
+      <c r="D113" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="E113" s="5" t="s">
+      <c r="E113" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="114" s="5" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="5" t="s">
+    <row r="114" s="6" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B114" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="C114" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="D114" s="5" t="s">
+      <c r="D114" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="E114" s="5" t="s">
+      <c r="E114" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="115" s="5" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="5" t="s">
+    <row r="115" s="6" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B115" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="C115" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="D115" s="5" t="s">
+      <c r="D115" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="E115" s="5" t="s">
+      <c r="E115" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="116" s="5" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="5" t="s">
+    <row r="116" s="6" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="B116" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="C116" s="5" t="s">
+      <c r="C116" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="D116" s="5" t="s">
+      <c r="D116" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="E116" s="5" t="s">
+      <c r="E116" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="117" s="5" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="5" t="s">
+    <row r="117" s="6" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="C117" s="5" t="s">
+      <c r="C117" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="D117" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="E117" s="5" t="s">
+      <c r="E117" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="118" s="5" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="5" t="s">
+    <row r="118" s="6" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B118" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="C118" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="D118" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="E118" s="5" t="s">
+      <c r="E118" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="119" s="5" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="5" t="s">
+    <row r="119" s="6" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B119" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="C119" s="5" t="s">
+      <c r="C119" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="D119" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="E119" s="5" t="s">
+      <c r="E119" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="120" s="5" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="5" t="s">
+    <row r="120" s="6" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="B120" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="C120" s="5" t="s">
+      <c r="C120" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="D120" s="5" t="s">
+      <c r="D120" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="E120" s="5" t="s">
+      <c r="E120" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="121" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="4" t="s">
+    <row r="121" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B121" s="14" t="s">
+      <c r="B121" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C121" s="13" t="s">
+      <c r="C121" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="D121" s="13" t="s">
+      <c r="D121" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="E121" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F121" s="13" t="s">
+      <c r="E121" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="G121" s="15" t="s">
+      <c r="G121" s="16" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5397,10 +5463,10 @@
       <c r="B122" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C122" s="0" t="s">
+      <c r="C122" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="D122" s="0" t="s">
+      <c r="D122" s="2" t="s">
         <v>348</v>
       </c>
     </row>
@@ -5411,16 +5477,16 @@
       <c r="B123" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C123" s="0" t="s">
+      <c r="C123" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D123" s="0" t="s">
+      <c r="D123" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="E123" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F123" s="11" t="s">
+      <c r="E123" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F123" s="12" t="s">
         <v>353</v>
       </c>
     </row>
@@ -5431,16 +5497,16 @@
       <c r="B124" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C124" s="0" t="s">
+      <c r="C124" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="D124" s="0" t="s">
+      <c r="D124" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="E124" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F124" s="11" t="s">
+      <c r="E124" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F124" s="12" t="s">
         <v>353</v>
       </c>
     </row>
@@ -5451,16 +5517,16 @@
       <c r="B125" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C125" s="0" t="s">
+      <c r="C125" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="D125" s="0" t="s">
+      <c r="D125" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="E125" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F125" s="11" t="s">
+      <c r="E125" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F125" s="12" t="s">
         <v>353</v>
       </c>
     </row>
@@ -5471,16 +5537,16 @@
       <c r="B126" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C126" s="0" t="s">
+      <c r="C126" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D126" s="0" t="s">
+      <c r="D126" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="E126" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F126" s="11" t="s">
+      <c r="E126" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" s="12" t="s">
         <v>353</v>
       </c>
     </row>
@@ -5491,16 +5557,16 @@
       <c r="B127" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C127" s="0" t="s">
+      <c r="C127" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="D127" s="0" t="s">
+      <c r="D127" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="E127" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F127" s="11" t="s">
+      <c r="E127" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127" s="12" t="s">
         <v>353</v>
       </c>
     </row>
@@ -5511,16 +5577,16 @@
       <c r="B128" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C128" s="0" t="s">
+      <c r="C128" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="D128" s="0" t="s">
+      <c r="D128" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="E128" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F128" s="11" t="s">
+      <c r="E128" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F128" s="12" t="s">
         <v>353</v>
       </c>
     </row>
@@ -5531,17 +5597,17 @@
       <c r="B129" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C129" s="0" t="s">
+      <c r="C129" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="D129" s="0" t="s">
+      <c r="D129" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E129" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F129" s="5"/>
-      <c r="G129" s="16" t="s">
+      <c r="E129" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F129" s="6"/>
+      <c r="G129" s="17" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5552,16 +5618,16 @@
       <c r="B130" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C130" s="0" t="s">
+      <c r="C130" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="D130" s="0" t="s">
+      <c r="D130" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="E130" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G130" s="16" t="s">
+      <c r="E130" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G130" s="17" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5572,19 +5638,19 @@
       <c r="B131" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C131" s="0" t="s">
+      <c r="C131" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="D131" s="0" t="s">
+      <c r="D131" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E131" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F131" s="11" t="s">
+      <c r="E131" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F131" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="G131" s="16" t="s">
+      <c r="G131" s="17" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5595,17 +5661,17 @@
       <c r="B132" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="C132" s="0" t="s">
+      <c r="C132" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="D132" s="0" t="s">
+      <c r="D132" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="E132" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F132" s="5"/>
-      <c r="G132" s="16" t="s">
+      <c r="E132" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F132" s="6"/>
+      <c r="G132" s="17" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5616,17 +5682,17 @@
       <c r="B133" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C133" s="0" t="s">
+      <c r="C133" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="D133" s="0" t="s">
+      <c r="D133" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E133" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F133" s="5"/>
-      <c r="G133" s="16" t="s">
+      <c r="E133" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F133" s="6"/>
+      <c r="G133" s="17" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5637,17 +5703,17 @@
       <c r="B134" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C134" s="0" t="s">
+      <c r="C134" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="D134" s="0" t="s">
+      <c r="D134" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="E134" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F134" s="5"/>
-      <c r="G134" s="16" t="s">
+      <c r="E134" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F134" s="6"/>
+      <c r="G134" s="17" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5658,16 +5724,16 @@
       <c r="B135" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="C135" s="0" t="s">
+      <c r="C135" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D135" s="0" t="s">
+      <c r="D135" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E135" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G135" s="16" t="s">
+      <c r="E135" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G135" s="17" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5678,17 +5744,17 @@
       <c r="B136" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C136" s="0" t="s">
+      <c r="C136" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="D136" s="0" t="s">
+      <c r="D136" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="E136" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F136" s="5"/>
-      <c r="G136" s="16" t="s">
+      <c r="E136" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F136" s="6"/>
+      <c r="G136" s="17" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5696,22 +5762,22 @@
       <c r="A137" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="B137" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C137" s="0" t="s">
+      <c r="C137" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="D137" s="0" t="s">
+      <c r="D137" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E137" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F137" s="11" t="s">
+      <c r="E137" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F137" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="G137" s="16" t="s">
+      <c r="G137" s="17" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5722,17 +5788,17 @@
       <c r="B138" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C138" s="0" t="s">
+      <c r="C138" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="D138" s="0" t="s">
+      <c r="D138" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E138" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F138" s="5"/>
-      <c r="G138" s="16" t="s">
+      <c r="E138" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F138" s="6"/>
+      <c r="G138" s="17" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5743,17 +5809,17 @@
       <c r="B139" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C139" s="0" t="s">
+      <c r="C139" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="D139" s="0" t="s">
+      <c r="D139" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E139" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F139" s="5"/>
-      <c r="G139" s="16" t="s">
+      <c r="E139" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F139" s="6"/>
+      <c r="G139" s="17" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5764,17 +5830,17 @@
       <c r="B140" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C140" s="0" t="s">
+      <c r="C140" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="D140" s="0" t="s">
+      <c r="D140" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E140" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F140" s="5"/>
-      <c r="G140" s="16" t="s">
+      <c r="E140" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F140" s="6"/>
+      <c r="G140" s="17" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5785,17 +5851,17 @@
       <c r="B141" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C141" s="0" t="s">
+      <c r="C141" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="D141" s="0" t="s">
+      <c r="D141" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E141" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F141" s="5"/>
-      <c r="G141" s="16" t="s">
+      <c r="E141" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F141" s="6"/>
+      <c r="G141" s="17" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5806,17 +5872,17 @@
       <c r="B142" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C142" s="0" t="s">
+      <c r="C142" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="D142" s="0" t="s">
+      <c r="D142" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E142" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F142" s="5"/>
-      <c r="G142" s="16" t="s">
+      <c r="E142" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F142" s="6"/>
+      <c r="G142" s="17" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5827,17 +5893,17 @@
       <c r="B143" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C143" s="0" t="s">
+      <c r="C143" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="D143" s="0" t="s">
+      <c r="D143" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E143" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F143" s="5"/>
-      <c r="G143" s="16" t="s">
+      <c r="E143" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F143" s="6"/>
+      <c r="G143" s="17" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5848,17 +5914,17 @@
       <c r="B144" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C144" s="0" t="s">
+      <c r="C144" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="D144" s="0" t="s">
+      <c r="D144" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E144" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F144" s="5"/>
-      <c r="G144" s="16" t="s">
+      <c r="E144" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F144" s="6"/>
+      <c r="G144" s="17" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5869,17 +5935,17 @@
       <c r="B145" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="C145" s="0" t="s">
+      <c r="C145" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="D145" s="0" t="s">
+      <c r="D145" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="E145" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F145" s="5"/>
-      <c r="G145" s="16" t="s">
+      <c r="E145" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F145" s="6"/>
+      <c r="G145" s="17" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5890,42 +5956,42 @@
       <c r="B146" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C146" s="0" t="s">
+      <c r="C146" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="D146" s="0" t="s">
+      <c r="D146" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E146" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F146" s="11" t="s">
+      <c r="E146" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F146" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="G146" s="16" t="s">
+      <c r="G146" s="17" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="147" s="5" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="4" t="s">
+    <row r="147" s="6" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B147" s="5" t="s">
+      <c r="B147" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="C147" s="5" t="s">
+      <c r="C147" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="D147" s="5" t="s">
+      <c r="D147" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="E147" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F147" s="11" t="s">
+      <c r="E147" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F147" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="G147" s="16" t="s">
+      <c r="G147" s="17" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5936,16 +6002,16 @@
       <c r="B148" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C148" s="0" t="s">
+      <c r="C148" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="D148" s="0" t="s">
+      <c r="D148" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="E148" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F148" s="0" t="s">
+      <c r="E148" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F148" s="2" t="s">
         <v>417</v>
       </c>
     </row>
@@ -5956,16 +6022,16 @@
       <c r="B149" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C149" s="0" t="s">
+      <c r="C149" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="D149" s="0" t="s">
+      <c r="D149" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="E149" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F149" s="0" t="s">
+      <c r="E149" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F149" s="2" t="s">
         <v>417</v>
       </c>
     </row>
@@ -5976,16 +6042,16 @@
       <c r="B150" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C150" s="0" t="s">
+      <c r="C150" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="D150" s="0" t="s">
+      <c r="D150" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="E150" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F150" s="0" t="s">
+      <c r="E150" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F150" s="2" t="s">
         <v>417</v>
       </c>
     </row>
@@ -5996,16 +6062,16 @@
       <c r="B151" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C151" s="0" t="s">
+      <c r="C151" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="D151" s="0" t="s">
+      <c r="D151" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="E151" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F151" s="0" t="s">
+      <c r="E151" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F151" s="2" t="s">
         <v>417</v>
       </c>
     </row>
@@ -6016,16 +6082,16 @@
       <c r="B152" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C152" s="0" t="s">
+      <c r="C152" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="D152" s="0" t="s">
+      <c r="D152" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="E152" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F152" s="0" t="s">
+      <c r="E152" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F152" s="2" t="s">
         <v>417</v>
       </c>
     </row>
@@ -6036,16 +6102,16 @@
       <c r="B153" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C153" s="0" t="s">
+      <c r="C153" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="D153" s="0" t="s">
+      <c r="D153" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="E153" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F153" s="5" t="s">
+      <c r="E153" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F153" s="6" t="s">
         <v>433</v>
       </c>
     </row>
@@ -6056,16 +6122,16 @@
       <c r="B154" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C154" s="0" t="s">
+      <c r="C154" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="D154" s="0" t="s">
+      <c r="D154" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="E154" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F154" s="5" t="s">
+      <c r="E154" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F154" s="6" t="s">
         <v>433</v>
       </c>
     </row>
@@ -6076,16 +6142,16 @@
       <c r="B155" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C155" s="0" t="s">
+      <c r="C155" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="D155" s="0" t="s">
+      <c r="D155" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="E155" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F155" s="5" t="s">
+      <c r="E155" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F155" s="6" t="s">
         <v>433</v>
       </c>
     </row>
@@ -6096,16 +6162,16 @@
       <c r="B156" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="C156" s="0" t="s">
+      <c r="C156" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="D156" s="0" t="s">
+      <c r="D156" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="E156" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F156" s="5" t="s">
+      <c r="E156" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F156" s="6" t="s">
         <v>433</v>
       </c>
     </row>
@@ -6116,16 +6182,16 @@
       <c r="B157" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C157" s="0" t="s">
+      <c r="C157" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="D157" s="0" t="s">
+      <c r="D157" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="E157" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F157" s="5" t="s">
+      <c r="E157" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F157" s="6" t="s">
         <v>433</v>
       </c>
     </row>
@@ -6136,16 +6202,16 @@
       <c r="B158" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="C158" s="0" t="s">
+      <c r="C158" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="D158" s="0" t="s">
+      <c r="D158" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E158" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F158" s="5" t="s">
+      <c r="E158" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F158" s="6" t="s">
         <v>433</v>
       </c>
     </row>
@@ -6156,16 +6222,16 @@
       <c r="B159" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C159" s="0" t="s">
+      <c r="C159" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="D159" s="0" t="s">
+      <c r="D159" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="E159" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F159" s="5" t="s">
+      <c r="E159" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F159" s="6" t="s">
         <v>433</v>
       </c>
     </row>
@@ -6176,16 +6242,16 @@
       <c r="B160" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C160" s="0" t="s">
+      <c r="C160" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="D160" s="0" t="s">
+      <c r="D160" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="E160" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F160" s="5" t="s">
+      <c r="E160" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F160" s="6" t="s">
         <v>433</v>
       </c>
     </row>
@@ -6196,16 +6262,16 @@
       <c r="B161" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="C161" s="0" t="s">
+      <c r="C161" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="D161" s="0" t="s">
+      <c r="D161" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="E161" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F161" s="5" t="s">
+      <c r="E161" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F161" s="6" t="s">
         <v>433</v>
       </c>
     </row>
@@ -6216,16 +6282,16 @@
       <c r="B162" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C162" s="0" t="s">
+      <c r="C162" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="D162" s="0" t="s">
+      <c r="D162" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E162" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F162" s="5" t="s">
+      <c r="E162" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F162" s="6" t="s">
         <v>433</v>
       </c>
     </row>
@@ -6236,16 +6302,16 @@
       <c r="B163" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="C163" s="0" t="s">
+      <c r="C163" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="D163" s="0" t="s">
+      <c r="D163" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="E163" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F163" s="5" t="s">
+      <c r="E163" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F163" s="6" t="s">
         <v>433</v>
       </c>
     </row>
@@ -6256,16 +6322,16 @@
       <c r="B164" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="C164" s="0" t="s">
+      <c r="C164" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="D164" s="0" t="s">
+      <c r="D164" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="E164" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F164" s="5" t="s">
+      <c r="E164" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F164" s="6" t="s">
         <v>433</v>
       </c>
     </row>
@@ -6273,19 +6339,19 @@
       <c r="A165" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B165" s="4" t="s">
+      <c r="B165" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="C165" s="0" t="s">
+      <c r="C165" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="D165" s="0" t="s">
+      <c r="D165" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="E165" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F165" s="0" t="s">
+      <c r="E165" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F165" s="2" t="s">
         <v>344</v>
       </c>
     </row>
@@ -6296,16 +6362,16 @@
       <c r="B166" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C166" s="0" t="s">
+      <c r="C166" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="D166" s="0" t="s">
+      <c r="D166" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="E166" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F166" s="11" t="s">
+      <c r="E166" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F166" s="12" t="s">
         <v>473</v>
       </c>
     </row>
@@ -6316,16 +6382,16 @@
       <c r="B167" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="C167" s="0" t="s">
+      <c r="C167" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="D167" s="0" t="s">
+      <c r="D167" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="E167" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F167" s="0" t="s">
+      <c r="E167" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F167" s="2" t="s">
         <v>478</v>
       </c>
     </row>
@@ -6336,16 +6402,16 @@
       <c r="B168" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="C168" s="0" t="s">
+      <c r="C168" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="D168" s="0" t="s">
+      <c r="D168" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="E168" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F168" s="0" t="s">
+      <c r="E168" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F168" s="2" t="s">
         <v>478</v>
       </c>
     </row>
@@ -6356,16 +6422,16 @@
       <c r="B169" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="C169" s="0" t="s">
+      <c r="C169" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="D169" s="0" t="s">
+      <c r="D169" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="E169" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F169" s="0" t="s">
+      <c r="E169" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F169" s="2" t="s">
         <v>478</v>
       </c>
     </row>
@@ -6376,16 +6442,16 @@
       <c r="B170" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C170" s="0" t="s">
+      <c r="C170" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="D170" s="0" t="s">
+      <c r="D170" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="E170" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F170" s="0" t="s">
+      <c r="E170" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F170" s="2" t="s">
         <v>478</v>
       </c>
     </row>
@@ -6396,16 +6462,16 @@
       <c r="B171" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="C171" s="0" t="s">
+      <c r="C171" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="D171" s="0" t="s">
+      <c r="D171" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="E171" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F171" s="0" t="s">
+      <c r="E171" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F171" s="2" t="s">
         <v>478</v>
       </c>
     </row>
@@ -6416,16 +6482,16 @@
       <c r="B172" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="C172" s="0" t="s">
+      <c r="C172" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="D172" s="0" t="s">
+      <c r="D172" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="E172" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F172" s="0" t="s">
+      <c r="E172" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F172" s="2" t="s">
         <v>478</v>
       </c>
     </row>
@@ -6436,36 +6502,36 @@
       <c r="B173" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="C173" s="0" t="s">
+      <c r="C173" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="D173" s="0" t="s">
+      <c r="D173" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="E173" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F173" s="0" t="s">
+      <c r="E173" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F173" s="2" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="5" t="s">
+      <c r="A174" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B174" s="5" t="s">
+      <c r="B174" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="C174" s="5" t="s">
+      <c r="C174" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="D174" s="5" t="s">
+      <c r="D174" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="E174" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F174" s="11" t="s">
+      <c r="E174" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F174" s="12" t="s">
         <v>499</v>
       </c>
     </row>
@@ -6473,22 +6539,22 @@
       <c r="A175" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B175" s="4" t="s">
+      <c r="B175" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="C175" s="0" t="s">
+      <c r="C175" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="D175" s="0" t="s">
+      <c r="D175" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="E175" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F175" s="11" t="s">
+      <c r="E175" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F175" s="12" t="s">
         <v>503</v>
       </c>
-      <c r="G175" s="17" t="s">
+      <c r="G175" s="18" t="s">
         <v>504</v>
       </c>
     </row>
@@ -6496,22 +6562,22 @@
       <c r="A176" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B176" s="4" t="s">
+      <c r="B176" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="C176" s="0" t="s">
+      <c r="C176" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="D176" s="0" t="s">
+      <c r="D176" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="E176" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F176" s="11" t="s">
+      <c r="E176" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F176" s="12" t="s">
         <v>508</v>
       </c>
-      <c r="G176" s="17" t="s">
+      <c r="G176" s="18" t="s">
         <v>504</v>
       </c>
     </row>
@@ -6519,22 +6585,22 @@
       <c r="A177" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B177" s="4" t="s">
+      <c r="B177" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="C177" s="0" t="s">
+      <c r="C177" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="D177" s="0" t="s">
+      <c r="D177" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="E177" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F177" s="11" t="s">
+      <c r="E177" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F177" s="12" t="s">
         <v>512</v>
       </c>
-      <c r="G177" s="17" t="s">
+      <c r="G177" s="18" t="s">
         <v>504</v>
       </c>
     </row>
@@ -6542,19 +6608,19 @@
       <c r="A178" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B178" s="8" t="s">
+      <c r="B178" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="C178" s="0" t="s">
+      <c r="C178" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="D178" s="0" t="s">
+      <c r="D178" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="E178" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F178" s="11" t="s">
+      <c r="E178" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F178" s="12" t="s">
         <v>516</v>
       </c>
     </row>
@@ -6562,8 +6628,8 @@
     <row r="180" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -6576,7 +6642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -6590,430 +6656,430 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="61.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="79.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="74.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="44.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="61.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="79.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="74.28"/>
   </cols>
   <sheetData>
-    <row r="1" s="18" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
+    <row r="1" s="19" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="19" t="s">
         <v>517</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>518</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="19" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>520</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>522</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="21" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="21" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="21" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>525</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="22" t="s">
         <v>530</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="23" t="s">
         <v>531</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="24" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="9" t="s">
         <v>533</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="2" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="21" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="9" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="9" t="s">
         <v>536</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="9" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="6" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="2" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
         <v>540</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="2" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -7022,106 +7088,130 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="94.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="94.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="31.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>543</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>545</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>547</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="27" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="26" t="s">
         <v>549</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="27" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="26" t="s">
         <v>551</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="27" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>553</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="27" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>555</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="27" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="27" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="26" t="s">
         <v>558</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="27" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="26" t="s">
         <v>560</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="27" t="s">
         <v>561</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="28" t="s">
+        <v>562</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="28" t="s">
+        <v>564</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="28" t="s">
+        <v>566</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>567</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -7130,7 +7220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -7139,211 +7229,211 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="253.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="253.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="27" t="s">
-        <v>562</v>
+      <c r="A1" s="30" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="28"/>
+      <c r="A2" s="31"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="29" t="s">
-        <v>563</v>
+      <c r="A3" s="32" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30"/>
+      <c r="A4" s="33"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
-        <v>564</v>
+      <c r="A5" s="13" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="31" t="s">
-        <v>565</v>
+      <c r="A6" s="34" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="31" t="s">
-        <v>566</v>
+      <c r="A7" s="34" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="31" t="s">
-        <v>567</v>
+      <c r="A8" s="34" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="31" t="s">
-        <v>568</v>
+      <c r="A9" s="34" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="31" t="s">
-        <v>569</v>
+      <c r="A10" s="34" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="31" t="s">
-        <v>570</v>
+      <c r="A11" s="34" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="31" t="s">
-        <v>571</v>
+      <c r="A12" s="34" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="31" t="s">
-        <v>572</v>
+      <c r="A13" s="34" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="31"/>
+      <c r="A14" s="34"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="32" t="s">
-        <v>573</v>
+      <c r="A15" s="35" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="33"/>
+      <c r="A16" s="36"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="34" t="s">
-        <v>575</v>
+      <c r="A17" s="13" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="37" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="38" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="34" t="s">
-        <v>576</v>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="37" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="34" t="s">
-        <v>577</v>
+      <c r="A21" s="38" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="38" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="38" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="34" t="s">
-        <v>578</v>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="37" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="38" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="34" t="s">
-        <v>579</v>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="37" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="38" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="38" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="38" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="38" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="34"/>
+      <c r="A31" s="38"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="35" t="s">
-        <v>580</v>
+      <c r="A32" s="39" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="34" t="s">
-        <v>581</v>
+      <c r="A33" s="38" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="34" t="s">
-        <v>582</v>
+      <c r="A34" s="38" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="36" t="s">
-        <v>583</v>
+      <c r="A35" s="40" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12" t="s">
-        <v>584</v>
+      <c r="A37" s="13" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="34" t="s">
-        <v>585</v>
+      <c r="A38" s="38" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="34" t="s">
-        <v>586</v>
+      <c r="A39" s="38" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="34" t="s">
-        <v>587</v>
+      <c r="A40" s="38" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="34" t="s">
-        <v>588</v>
+      <c r="A41" s="38" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="34"/>
+      <c r="A42" s="38"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/Atributos no Autenticação.Gov/Atributos.xlsx
+++ b/Atributos no Autenticação.Gov/Atributos.xlsx
@@ -2014,10 +2014,10 @@
     <t xml:space="preserve">ANSR</t>
   </si>
   <si>
-    <t xml:space="preserve">Diário da República Eletrónico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DRE2</t>
+    <t xml:space="preserve">Diário da República</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRE</t>
   </si>
   <si>
     <t xml:space="preserve">Governo Regional da Madeira</t>
@@ -2960,8 +2960,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
+          <fgColor rgb="FF3C3C3C"/>
+          <bgColor rgb="FFFCFCFC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3050,7 +3050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -6642,7 +6642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -6654,7 +6654,7 @@
       <selection pane="bottomLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="44.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="61.3"/>
@@ -7088,17 +7088,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="94.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="31.83"/>
@@ -7220,7 +7220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -7232,7 +7232,7 @@
       <selection pane="bottomLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="253.42"/>
   </cols>

--- a/Atributos no Autenticação.Gov/Atributos.xlsx
+++ b/Atributos no Autenticação.Gov/Atributos.xlsx
@@ -2017,7 +2017,7 @@
     <t xml:space="preserve">Diário da República</t>
   </si>
   <si>
-    <t xml:space="preserve">DRE</t>
+    <t xml:space="preserve">DR</t>
   </si>
   <si>
     <t xml:space="preserve">Governo Regional da Madeira</t>
@@ -6654,7 +6654,7 @@
       <selection pane="bottomLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="44.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="61.3"/>
@@ -7095,10 +7095,10 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="94.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="31.83"/>
@@ -7232,7 +7232,7 @@
       <selection pane="bottomLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="253.42"/>
   </cols>
